--- a/data/management/Management_information_QLB_2017.xlsx
+++ b/data/management/Management_information_QLB_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tillrose/Library/Mobile Documents/com~apple~CloudDocs/iCloud Daten/Arbeit/R-Projects/Git_Repositories/BRIWECS_Data_Publication_2/data/management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A0377E-D605-F148-A46B-42DC82E478A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FDA3E2-A8DD-7E41-B2CC-851E211BFCCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="38040" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,12 +339,6 @@
     <t>Cultivation, soil-levelling</t>
   </si>
   <si>
-    <t>Avena (green cutting, mulching)</t>
-  </si>
-  <si>
-    <t>Lucerne, ryegrass</t>
-  </si>
-  <si>
     <t>Stubble cultivation, plowing</t>
   </si>
   <si>
@@ -388,6 +382,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>avena (green cutting, mulching)</t>
+  </si>
+  <si>
+    <t>lucerne, ryegrass</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="17" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
@@ -1186,7 +1186,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -1195,7 +1195,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -1204,7 +1204,7 @@
         <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1"/>
     </row>
@@ -1222,7 +1222,7 @@
         <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C29" s="1"/>
     </row>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1"/>
     </row>
@@ -1240,7 +1240,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1"/>
     </row>
@@ -1406,19 +1406,19 @@
         <v>98</v>
       </c>
       <c r="L44" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N44" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="O44" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="P44" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>7</v>
@@ -1463,10 +1463,10 @@
       </c>
       <c r="O45" s="23"/>
       <c r="P45" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q45" s="26" t="s">
         <v>115</v>
-      </c>
-      <c r="Q45" s="26" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>42892</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q46" s="27">
         <v>42947</v>
@@ -1754,19 +1754,19 @@
         <v>98</v>
       </c>
       <c r="L55" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="M55" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="N55" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="M55" s="22" t="s">
+      <c r="O55" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="N55" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="O55" s="22" t="s">
-        <v>111</v>
-      </c>
       <c r="P55" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q55" s="10" t="s">
         <v>7</v>
@@ -1803,10 +1803,10 @@
       <c r="N56" s="23"/>
       <c r="O56" s="23"/>
       <c r="P56" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q56" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -1834,7 +1834,7 @@
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
       <c r="P57" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q57" s="27">
         <v>42947</v>
@@ -2084,19 +2084,19 @@
         <v>98</v>
       </c>
       <c r="L66" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="N66" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="M66" s="22" t="s">
+      <c r="O66" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="N66" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="O66" s="22" t="s">
-        <v>111</v>
-      </c>
       <c r="P66" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q66" s="10" t="s">
         <v>7</v>
@@ -2147,10 +2147,10 @@
       </c>
       <c r="O67" s="23"/>
       <c r="P67" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q67" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -2192,7 +2192,7 @@
         <v>42892</v>
       </c>
       <c r="P68" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q68" s="27">
         <v>42949</v>
@@ -2444,19 +2444,19 @@
         <v>98</v>
       </c>
       <c r="L77" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M77" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N77" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="M77" s="10" t="s">
+      <c r="O77" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N77" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="O77" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="P77" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q77" s="10" t="s">
         <v>7</v>
@@ -2499,10 +2499,10 @@
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q78" s="26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -2536,7 +2536,7 @@
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
       <c r="P79" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q79" s="27">
         <v>42950</v>
